--- a/src/test/resources/Book1.xlsx
+++ b/src/test/resources/Book1.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waris ansari\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15380" windowHeight="2670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,24 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>manjunath</t>
+    <t>TC01</t>
   </si>
   <si>
-    <t>java</t>
+    <t>A-B</t>
   </si>
   <si>
-    <t>srivalli</t>
+    <t>TC02</t>
   </si>
   <si>
-    <t>selenium</t>
-  </si>
-  <si>
-    <t>uma</t>
-  </si>
-  <si>
-    <t>manual</t>
+    <t>A-B-C-D</t>
   </si>
 </sst>
 </file>
@@ -359,18 +349,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,7 +369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -386,14 +377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
